--- a/models/calculation engines/cbix2/outputs/panamax/actual_price_determination_from_CBIX_price/final_specifications_to_viu_adjustment.xlsx
+++ b/models/calculation engines/cbix2/outputs/panamax/actual_price_determination_from_CBIX_price/final_specifications_to_viu_adjustment.xlsx
@@ -813,7 +813,7 @@
         <v>0.3625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E4" t="n">
         <v>0.0675</v>
